--- a/datasheet_pindstributor/VoltageDistributor.xlsx
+++ b/datasheet_pindstributor/VoltageDistributor.xlsx
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:T1048576"/>
     </sheetView>
   </sheetViews>
@@ -1847,12 +1847,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O15"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="O22:O23"/>
@@ -1866,6 +1860,12 @@
     <mergeCell ref="O49:O50"/>
     <mergeCell ref="O52:O53"/>
     <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
